--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,167 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +903,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +989,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,57 +1000,69 @@
         <v>1300</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1300</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-1000</v>
       </c>
       <c r="G18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1074,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,27 +1091,33 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1067,13 +1140,19 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1088,45 +1167,57 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="F23" s="3">
         <v>-1000</v>
       </c>
       <c r="G23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1245,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="F26" s="3">
         <v>-1000</v>
       </c>
       <c r="G26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,16 +1385,22 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>-1000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1296,11 +1417,17 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1490,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,51 +1511,63 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1704,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,26 +1770,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1620,26 +1805,32 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1649,22 +1840,28 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
@@ -1675,69 +1872,87 @@
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1745,16 +1960,16 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -1765,23 +1980,29 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>1500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2085,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2120,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2155,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,25 +2224,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
@@ -1991,98 +2252,122 @@
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,10 +2393,16 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2124,11 +2415,11 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2136,11 +2427,17 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2535,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,20 +2655,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F70" s="3">
         <v>3700</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2725,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-21300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-20300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-19600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2865,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1700</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>-400</v>
+        <v>-1700</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,19 +3390,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
@@ -2963,11 +3422,17 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3580,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3650,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,80 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -743,19 +747,22 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -763,57 +770,60 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>-100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -821,11 +831,14 @@
       <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,19 +926,22 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -929,12 +949,12 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1097,31 +1131,34 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1146,16 +1183,19 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1173,51 +1213,57 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-700</v>
       </c>
       <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,20 +1449,23 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1423,11 +1484,14 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1517,57 +1587,63 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-700</v>
       </c>
       <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-700</v>
       </c>
       <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,29 +1792,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1738,11 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,28 +1866,31 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+      <c r="I43" s="3">
+        <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -1811,28 +1904,31 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+      <c r="I44" s="3">
+        <v>200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -1846,25 +1942,28 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
+      <c r="E45" s="3">
+        <v>100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -1878,11 +1977,14 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1890,20 +1992,20 @@
         <v>1900</v>
       </c>
       <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
@@ -1913,22 +2015,25 @@
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+      <c r="F47" s="3">
+        <v>1000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
@@ -1942,8 +2047,8 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1960,10 +2068,10 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -1971,8 +2079,8 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1997,14 +2108,14 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
-        <v>1500</v>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>1500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +2284,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2170,20 +2296,20 @@
         <v>3100</v>
       </c>
       <c r="E54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2193,11 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,29 +2356,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2258,32 +2389,35 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2293,31 +2427,34 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1400</v>
       </c>
       <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+      <c r="I59" s="3">
+        <v>1400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -2328,32 +2465,35 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2000</v>
       </c>
       <c r="F60" s="3">
         <v>2000</v>
       </c>
       <c r="G60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2363,11 +2503,14 @@
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2399,10 +2542,13 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2421,8 +2567,8 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2433,11 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,28 +2696,31 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+      <c r="I66" s="3">
+        <v>800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -2573,11 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,23 +2826,26 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E70" s="3">
         <v>4400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>3200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>3700</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,29 +2902,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2763,11 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,29 +3054,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2903,11 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-700</v>
       </c>
       <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,16 +3229,17 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
@@ -3057,8 +3256,8 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,16 +3511,17 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
@@ -3317,8 +3538,8 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3405,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
@@ -3428,11 +3658,14 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-900</v>
       </c>
       <c r="L102" s="3">
         <v>-900</v>
       </c>
       <c r="M102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,87 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -750,83 +754,89 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -834,11 +844,14 @@
       <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,11 +960,11 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -952,12 +972,12 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,13 +1143,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1134,34 +1168,37 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1197,8 +1237,8 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1216,54 +1256,60 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-700</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
       </c>
       <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1463,12 +1524,12 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1487,11 +1548,14 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,13 +1633,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1590,60 +1660,66 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-700</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
       </c>
       <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-700</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
       </c>
       <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,32 +1879,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1828,11 +1915,14 @@
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,31 +1959,34 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1916,22 +2012,22 @@
         <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
       </c>
       <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
+      <c r="J44" s="3">
+        <v>200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
@@ -1945,28 +2041,31 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -1980,35 +2079,38 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E46" s="3">
         <v>1900</v>
       </c>
       <c r="F46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2018,25 +2120,28 @@
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>1100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1000</v>
       </c>
       <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
+      <c r="G47" s="3">
+        <v>1000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
@@ -2050,8 +2155,8 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2071,10 +2179,10 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2082,8 +2190,8 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2111,14 +2222,14 @@
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
-        <v>1500</v>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+      <c r="I49" s="3">
+        <v>1500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,32 +2410,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
         <v>3100</v>
       </c>
       <c r="F54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2322,11 +2448,14 @@
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,32 +2487,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2392,11 +2523,14 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,23 +2538,23 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
       <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2430,34 +2564,37 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
       </c>
       <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>1600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1400</v>
       </c>
       <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
+      <c r="J59" s="3">
+        <v>1400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
@@ -2468,35 +2605,38 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2000</v>
       </c>
       <c r="G60" s="3">
         <v>2000</v>
       </c>
       <c r="H60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2506,11 +2646,14 @@
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,10 +2688,13 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2570,8 +2716,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -2582,11 +2728,14 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,31 +2854,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>800</v>
       </c>
       <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
+      <c r="J66" s="3">
+        <v>800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
@@ -2734,11 +2892,14 @@
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2838,17 +3006,17 @@
         <v>3900</v>
       </c>
       <c r="E70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F70" s="3">
         <v>4400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>3200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>3700</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,32 +3076,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2940,11 +3114,14 @@
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,32 +3240,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3092,11 +3278,14 @@
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-700</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
       </c>
       <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3241,8 +3440,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -3259,8 +3458,8 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3523,8 +3744,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -3541,8 +3762,8 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3638,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
@@ -3661,11 +3891,14 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3841,37 +4087,40 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>300</v>
       </c>
       <c r="J100" s="3">
         <v>300</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3917,33 +4169,36 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-900</v>
       </c>
       <c r="M102" s="3">
         <v>-900</v>
       </c>
       <c r="N102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,124 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,81 +790,93 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,13 +982,19 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -963,35 +1002,41 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1096,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>1300</v>
       </c>
       <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1300</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1154,46 @@
         <v>-700</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
       </c>
       <c r="H18" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I18" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-1000</v>
       </c>
       <c r="K18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,20 +1209,22 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1171,40 +1238,46 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1299,14 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1240,11 +1319,11 @@
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1259,57 +1338,69 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-800</v>
       </c>
       <c r="J23" s="3">
         <v>-1000</v>
       </c>
       <c r="K23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-800</v>
       </c>
       <c r="J26" s="3">
         <v>-1000</v>
       </c>
       <c r="K26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-800</v>
       </c>
       <c r="G27" s="3">
         <v>-600</v>
       </c>
       <c r="H27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,29 +1628,35 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1551,11 +1672,17 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,20 +1769,26 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1663,63 +1802,75 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2051,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1400</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,38 +2141,44 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2003,38 +2188,44 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2044,34 +2235,40 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
@@ -2082,73 +2279,85 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>1100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2158,22 +2367,28 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2182,22 +2397,22 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
+      <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
@@ -2208,8 +2423,14 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2225,18 +2446,18 @@
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>1500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,37 +2747,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>200</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
@@ -2526,134 +2787,158 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,10 +2976,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2719,11 +3010,11 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -2731,11 +3022,17 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3009,20 +3344,20 @@
         <v>3900</v>
       </c>
       <c r="F70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H70" s="3">
         <v>4400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>3200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>3700</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-25500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-20300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-19600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3443,11 +3840,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3461,17 +3858,23 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1700</v>
+        <v>-600</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
-        <v>-400</v>
+        <v>-1700</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,13 +4172,15 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3747,11 +4188,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -3765,17 +4206,23 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3871,16 +4330,16 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3894,11 +4353,17 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4563,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4090,37 +4581,43 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,25 +747,25 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>700</v>
       </c>
       <c r="G8" s="3">
+        <v>700</v>
+      </c>
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -770,19 +774,22 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,46 +797,49 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,34 +847,34 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>-100</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -872,11 +882,14 @@
       <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1005,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
@@ -1008,11 +1028,11 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1020,12 +1040,12 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,11 +1257,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1244,43 +1278,46 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1305,13 +1342,16 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
@@ -1325,8 +1365,8 @@
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1344,63 +1384,69 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
       </c>
       <c r="L27" s="3">
         <v>-700</v>
       </c>
       <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,19 +1692,22 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1654,12 +1715,12 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1678,11 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,11 +1857,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1808,69 +1878,75 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
       </c>
       <c r="L33" s="3">
         <v>-700</v>
       </c>
       <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
       </c>
       <c r="L35" s="3">
         <v>-700</v>
       </c>
       <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,32 +2149,32 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2097,11 +2184,14 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,40 +2237,43 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2203,31 +2299,31 @@
         <v>600</v>
       </c>
       <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>700</v>
       </c>
       <c r="H44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I44" s="3">
         <v>600</v>
       </c>
       <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
+      <c r="M44" s="3">
+        <v>200</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>5</v>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2252,26 +2351,26 @@
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
@@ -2285,11 +2384,14 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2297,32 +2399,32 @@
         <v>1200</v>
       </c>
       <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1900</v>
       </c>
       <c r="H46" s="3">
         <v>1900</v>
       </c>
       <c r="I46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2332,34 +2434,37 @@
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>1100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1000</v>
       </c>
       <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
+      <c r="J47" s="3">
+        <v>1000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
@@ -2373,8 +2478,8 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2403,10 +2511,10 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2414,8 +2522,8 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
+      <c r="M48" s="3">
+        <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2452,14 +2563,14 @@
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
-        <v>1500</v>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>1500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="L49" s="3">
+        <v>1500</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,32 +2799,32 @@
         <v>1200</v>
       </c>
       <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3100</v>
       </c>
       <c r="H54" s="3">
         <v>3100</v>
       </c>
       <c r="I54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2708,11 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +2879,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2793,44 +2924,47 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2840,11 +2974,14 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2852,31 +2989,31 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1200</v>
       </c>
       <c r="I59" s="3">
         <v>1200</v>
       </c>
       <c r="J59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1400</v>
       </c>
       <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
+      <c r="M59" s="3">
+        <v>1400</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
@@ -2887,44 +3024,47 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2000</v>
       </c>
       <c r="J60" s="3">
         <v>2000</v>
       </c>
       <c r="K60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2934,11 +3074,14 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,10 +3125,13 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3016,8 +3162,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
@@ -3028,11 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,40 +3327,43 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
+      <c r="M66" s="3">
+        <v>800</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
@@ -3216,11 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3350,17 +3518,17 @@
         <v>3900</v>
       </c>
       <c r="H70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I70" s="3">
         <v>4400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>3700</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3597,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3470,11 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3797,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3658,11 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
       </c>
       <c r="L81" s="3">
         <v>-700</v>
       </c>
       <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3846,8 +4045,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -3864,8 +4063,8 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,16 +4394,17 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4194,8 +4415,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -4212,8 +4433,8 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4336,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
@@ -4359,11 +4589,14 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,13 +4812,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4587,37 +4833,40 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4672,42 +4924,45 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-900</v>
       </c>
       <c r="P102" s="3">
         <v>-900</v>
       </c>
       <c r="Q102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,114 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
       </c>
       <c r="F8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G8" s="3">
         <v>700</v>
       </c>
       <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -777,107 +781,113 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>-100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -885,11 +895,14 @@
       <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1031,11 +1051,11 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1043,12 +1063,12 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1260,11 +1294,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1281,46 +1315,49 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1345,16 +1382,19 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
@@ -1368,8 +1408,8 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1387,66 +1427,72 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
       </c>
       <c r="M27" s="3">
         <v>-700</v>
       </c>
       <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,11 +1767,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1718,12 +1779,12 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1742,11 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1860,11 +1930,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1881,72 +1951,78 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
       </c>
       <c r="M33" s="3">
         <v>-700</v>
       </c>
       <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
       </c>
       <c r="M35" s="3">
         <v>-700</v>
       </c>
       <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2187,11 +2274,14 @@
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,43 +2330,46 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
@@ -2290,43 +2383,46 @@
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>600</v>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>700</v>
       </c>
       <c r="H44" s="3">
         <v>700</v>
       </c>
       <c r="I44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J44" s="3">
         <v>600</v>
       </c>
       <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
+      <c r="N44" s="3">
+        <v>200</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>5</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2354,26 +2453,26 @@
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
@@ -2387,47 +2486,50 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200</v>
+        <v>12500</v>
       </c>
       <c r="E46" s="3">
         <v>1200</v>
       </c>
       <c r="F46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1900</v>
       </c>
       <c r="I46" s="3">
         <v>1900</v>
       </c>
       <c r="J46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2437,11 +2539,14 @@
       <c r="Q46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2451,23 +2556,23 @@
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>1100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1000</v>
       </c>
       <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
+      <c r="K47" s="3">
+        <v>1000</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
@@ -2481,8 +2586,8 @@
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,19 +2595,22 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2514,10 +2622,10 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2525,8 +2633,8 @@
       <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
@@ -2540,13 +2648,16 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>16500</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
@@ -2566,14 +2677,14 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>1500</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>1500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
+      <c r="M49" s="3">
+        <v>1500</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200</v>
+        <v>54700</v>
       </c>
       <c r="E54" s="3">
         <v>1200</v>
       </c>
       <c r="F54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3100</v>
       </c>
       <c r="I54" s="3">
         <v>3100</v>
       </c>
       <c r="J54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2837,11 +2963,14 @@
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,44 +3010,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2927,47 +3058,50 @@
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
       <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2977,46 +3111,49 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>1600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1400</v>
       </c>
       <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
+      <c r="N59" s="3">
+        <v>1400</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
@@ -3027,47 +3164,50 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2000</v>
       </c>
       <c r="K60" s="3">
         <v>2000</v>
       </c>
       <c r="L60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3077,11 +3217,14 @@
       <c r="Q60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,15 +3271,18 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3165,8 +3311,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
@@ -3177,11 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,43 +3485,46 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
+      <c r="N66" s="3">
+        <v>800</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
@@ -3377,11 +3535,14 @@
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,13 +3665,16 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>3900</v>
@@ -3521,17 +3689,17 @@
         <v>3900</v>
       </c>
       <c r="I70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J70" s="3">
         <v>4400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>3200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3700</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3647,11 +3821,14 @@
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3847,11 +4033,14 @@
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
       </c>
       <c r="M81" s="3">
         <v>-700</v>
       </c>
       <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4048,8 +4247,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -4066,8 +4265,8 @@
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4406,8 +4627,8 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4418,8 +4639,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -4436,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,13 +4772,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4569,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
@@ -4592,11 +4822,14 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,17 +5058,20 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4836,37 +5082,40 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>5400</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-900</v>
       </c>
       <c r="Q102" s="3">
         <v>-900</v>
       </c>
       <c r="R102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -1033,8 +1033,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1157,8 +1157,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>6200</v>
       </c>
       <c r="E17" s="3">
         <v>2200</v>
@@ -1210,8 +1210,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-3400</v>
       </c>
       <c r="E18" s="3">
         <v>-1600</v>
@@ -1284,8 +1284,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1337,8 +1337,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-3300</v>
       </c>
       <c r="E21" s="3">
         <v>-1600</v>
@@ -1390,8 +1390,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1443,8 +1443,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-3800</v>
       </c>
       <c r="E23" s="3">
         <v>-1700</v>
@@ -1920,8 +1920,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2391,8 +2391,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
+      <c r="D44" s="3">
+        <v>1600</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
@@ -2444,8 +2444,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>2400</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
@@ -2657,7 +2657,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16500</v>
+        <v>39700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
@@ -3069,8 +3069,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>5100</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -3123,7 +3123,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3281,8 +3281,8 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>21500</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -5066,8 +5066,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>13000</v>
       </c>
       <c r="E100" s="3">
         <v>900</v>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,282 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>900</v>
+      </c>
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>700</v>
       </c>
       <c r="L8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
+        <v>200</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
-        <v>400</v>
-      </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="G9" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>800</v>
+      </c>
+      <c r="K9" s="3">
+        <v>400</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +960,11 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1016,17 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1078,17 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,20 +1101,20 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1063,26 +1122,35 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1202,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1229,135 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1377,11 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,23 +1392,23 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1318,55 +1419,64 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1385,25 +1495,34 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1411,14 +1530,14 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1430,69 +1549,87 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1681,17 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1743,141 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-700</v>
       </c>
       <c r="R27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1929,17 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,8 +1952,8 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1779,21 +1961,21 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1806,11 +1988,20 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +2053,17 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2115,17 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,23 +2136,23 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1954,75 +2163,93 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-700</v>
       </c>
       <c r="R33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2301,146 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-700</v>
       </c>
       <c r="R35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2460,11 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2484,73 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,155 +2602,182 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
         <v>2900</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>500</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
+        <v>500</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>600</v>
       </c>
       <c r="L44" s="3">
         <v>700</v>
       </c>
       <c r="M44" s="3">
+        <v>600</v>
+      </c>
+      <c r="N44" s="3">
+        <v>600</v>
+      </c>
+      <c r="O44" s="3">
+        <v>700</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
@@ -2489,75 +2785,93 @@
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G46" s="3">
         <v>12500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>2600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2566,66 +2880,75 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>1100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2634,16 +2957,16 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
@@ -2651,23 +2974,32 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>36800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>37600</v>
+      </c>
+      <c r="G49" s="3">
         <v>39700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2680,21 +3012,21 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>1500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>1500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2704,8 +3036,17 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +3098,17 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,31 +3160,40 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2863,8 +3222,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3284,79 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>65100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>50700</v>
+      </c>
+      <c r="G54" s="3">
         <v>54700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>4100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3376,11 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,81 +3400,93 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3094,148 +3495,175 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
+      <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2000</v>
       </c>
       <c r="M60" s="3">
         <v>1800</v>
       </c>
       <c r="N60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3274,25 +3702,34 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G62" s="3">
         <v>21500</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
@@ -3314,23 +3751,32 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3828,17 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3890,17 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3952,79 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>30800</v>
+      </c>
+      <c r="G66" s="3">
         <v>29600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +4044,11 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +4100,17 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +4162,17 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3677,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>3900</v>
@@ -3692,23 +4195,23 @@
         <v>3900</v>
       </c>
       <c r="J70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M70" s="3">
         <v>4400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="N70" s="3">
         <v>3200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="O70" s="3">
         <v>3700</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +4224,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4286,79 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-32500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-28800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-27200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-26500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-25500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-24300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-23800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-22900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-21300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-20300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-19600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4410,17 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4472,17 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4534,79 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G76" s="3">
         <v>25100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4658,146 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-700</v>
       </c>
       <c r="R81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,19 +4817,22 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4250,14 +4846,14 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
@@ -4268,17 +4864,26 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4935,17 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4997,17 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +5059,17 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +5121,17 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +5183,79 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,40 +5275,43 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1800</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
@@ -4660,17 +5322,26 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5393,17 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,23 +5455,32 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4802,19 +5491,19 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
@@ -4825,11 +5514,20 @@
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5547,11 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5603,17 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5665,17 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5727,17 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5789,79 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5913,75 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,141 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>600</v>
       </c>
       <c r="I8" s="3">
         <v>600</v>
       </c>
       <c r="J8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>700</v>
       </c>
       <c r="L8" s="3">
+        <v>700</v>
+      </c>
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -804,131 +808,137 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
       <c r="U8" s="3">
+        <v>200</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>4900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>500</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
         <v>1800</v>
       </c>
       <c r="F10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G10" s="3">
         <v>-900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>-100</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
@@ -936,11 +946,14 @@
       <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,13 +1104,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1110,8 +1130,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1122,11 +1142,11 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1134,12 +1154,12 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E17" s="3">
         <v>10500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,23 +1413,24 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1407,11 +1441,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1428,58 +1462,61 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1515,17 +1555,17 @@
       <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1539,8 +1579,8 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1558,78 +1598,84 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-700</v>
       </c>
       <c r="Q27" s="3">
         <v>-700</v>
       </c>
       <c r="R27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1961,11 +2022,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1973,12 +2034,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1997,11 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,23 +2191,26 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2151,11 +2221,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2172,84 +2242,90 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-700</v>
       </c>
       <c r="Q33" s="3">
         <v>-700</v>
       </c>
       <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-700</v>
       </c>
       <c r="Q35" s="3">
         <v>-700</v>
       </c>
       <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
+        <v>500</v>
+      </c>
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2546,11 +2633,14 @@
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,55 +2701,58 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
+      <c r="R43" s="3">
+        <v>100</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>5</v>
@@ -2673,55 +2766,58 @@
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>600</v>
       </c>
       <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>700</v>
       </c>
       <c r="L44" s="3">
         <v>700</v>
       </c>
       <c r="M44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N44" s="3">
         <v>600</v>
       </c>
       <c r="O44" s="3">
+        <v>600</v>
+      </c>
+      <c r="P44" s="3">
         <v>700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
+      <c r="R44" s="3">
+        <v>200</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>5</v>
@@ -2735,52 +2831,55 @@
       <c r="V44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
@@ -2794,59 +2893,62 @@
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E46" s="3">
         <v>13500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1200</v>
       </c>
       <c r="I46" s="3">
         <v>1200</v>
       </c>
       <c r="J46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1900</v>
       </c>
       <c r="M46" s="3">
         <v>1900</v>
       </c>
       <c r="N46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2856,11 +2958,14 @@
       <c r="U46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2889,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>1100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1000</v>
       </c>
       <c r="N47" s="3">
         <v>1000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
+      <c r="O47" s="3">
+        <v>1000</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
@@ -2912,8 +3017,8 @@
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2921,31 +3026,34 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E48" s="3">
         <v>12600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2957,10 +3065,10 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2968,8 +3076,8 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
+      <c r="R48" s="3">
+        <v>100</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
@@ -2983,26 +3091,29 @@
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E49" s="3">
         <v>36000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>39700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3021,14 +3132,14 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>1500</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>1500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
+      <c r="Q49" s="3">
+        <v>1500</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,14 +3298,14 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3195,8 +3315,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E54" s="3">
         <v>62500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>50700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>54700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1200</v>
       </c>
       <c r="I54" s="3">
         <v>1200</v>
       </c>
       <c r="J54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3100</v>
       </c>
       <c r="M54" s="3">
         <v>3100</v>
       </c>
       <c r="N54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3352,11 +3478,14 @@
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,56 +3533,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3462,16 +3593,19 @@
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E58" s="3">
         <v>5000</v>
@@ -3480,41 +3614,41 @@
         <v>5000</v>
       </c>
       <c r="G58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3524,58 +3658,61 @@
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1200</v>
       </c>
       <c r="N59" s="3">
         <v>1200</v>
       </c>
       <c r="O59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P59" s="3">
         <v>1600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1400</v>
       </c>
       <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
+      <c r="R59" s="3">
+        <v>1400</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
@@ -3586,59 +3723,62 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E60" s="3">
         <v>13600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2000</v>
       </c>
       <c r="O60" s="3">
         <v>2000</v>
       </c>
       <c r="P60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3648,16 +3788,19 @@
       <c r="U60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3666,7 +3809,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3711,28 +3854,31 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E62" s="3">
         <v>25300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21500</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
@@ -3760,8 +3906,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
@@ -3772,11 +3918,14 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,55 +4116,58 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E66" s="3">
         <v>38200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
+      <c r="R66" s="3">
+        <v>800</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
@@ -4020,11 +4178,14 @@
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4189,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>3900</v>
@@ -4204,17 +4372,17 @@
         <v>3900</v>
       </c>
       <c r="M70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N70" s="3">
         <v>4400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3700</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-37000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4354,11 +4528,14 @@
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E76" s="3">
         <v>24300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4602,11 +4788,14 @@
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-700</v>
       </c>
       <c r="Q81" s="3">
         <v>-700</v>
       </c>
       <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,23 +5018,24 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4855,8 +5054,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -4873,8 +5072,8 @@
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,20 +5498,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5301,8 +5522,8 @@
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5313,8 +5534,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -5331,8 +5552,8 @@
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,26 +5691,29 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5500,13 +5730,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
@@ -5523,11 +5753,14 @@
       <c r="U94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,29 +6041,32 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5831,37 +6077,40 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>300</v>
       </c>
       <c r="R100" s="3">
         <v>300</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-900</v>
       </c>
       <c r="U102" s="3">
         <v>-900</v>
       </c>
       <c r="V102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,147 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>600</v>
       </c>
       <c r="K8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L8" s="3">
         <v>700</v>
       </c>
       <c r="M8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
@@ -811,137 +814,143 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
       </c>
       <c r="K9" s="3">
+        <v>400</v>
+      </c>
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>500</v>
-      </c>
-      <c r="P9" s="3">
-        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1800</v>
       </c>
       <c r="F10" s="3">
         <v>1800</v>
       </c>
       <c r="G10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H10" s="3">
         <v>-900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>-100</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
@@ -949,11 +958,14 @@
       <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,17 +1123,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E14" s="3">
         <v>10700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1133,8 +1152,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1145,11 +1164,11 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1157,12 +1176,12 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1172,8 +1191,11 @@
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E17" s="3">
         <v>17900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,26 +1446,27 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="3">
         <v>13000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1444,11 +1477,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1465,61 +1498,64 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1544,8 +1580,11 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1558,17 +1597,17 @@
       <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1582,8 +1621,8 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1601,81 +1640,87 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1784,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-700</v>
       </c>
       <c r="R27" s="3">
         <v>-700</v>
       </c>
       <c r="S27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,11 +2085,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2037,12 +2097,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2061,11 +2121,14 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,26 +2260,29 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2224,11 +2293,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2245,87 +2314,93 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-700</v>
       </c>
       <c r="R33" s="3">
         <v>-700</v>
       </c>
       <c r="S33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-700</v>
       </c>
       <c r="R35" s="3">
         <v>-700</v>
       </c>
       <c r="S35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2659,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2636,11 +2722,14 @@
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,58 +2793,61 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
@@ -2769,58 +2861,61 @@
       <c r="W43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>600</v>
       </c>
       <c r="J44" s="3">
         <v>600</v>
       </c>
       <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
         <v>500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>700</v>
       </c>
       <c r="M44" s="3">
         <v>700</v>
       </c>
       <c r="N44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O44" s="3">
         <v>600</v>
       </c>
       <c r="P44" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q44" s="3">
         <v>700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
+      <c r="S44" s="3">
+        <v>200</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>5</v>
@@ -2834,8 +2929,11 @@
       <c r="W44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,46 +2941,46 @@
         <v>600</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
+      <c r="O45" s="3">
+        <v>100</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>5</v>
@@ -2896,62 +2994,65 @@
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E46" s="3">
         <v>9800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1200</v>
       </c>
       <c r="J46" s="3">
         <v>1200</v>
       </c>
       <c r="K46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1900</v>
       </c>
       <c r="N46" s="3">
         <v>1900</v>
       </c>
       <c r="O46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2961,11 +3062,14 @@
       <c r="V46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2997,16 +3101,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>1100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1000</v>
       </c>
       <c r="O47" s="3">
         <v>1000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
+      <c r="P47" s="3">
+        <v>1000</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
@@ -3020,8 +3124,8 @@
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3029,34 +3133,37 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E48" s="3">
         <v>12700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3068,10 +3175,10 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3079,8 +3186,8 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
@@ -3094,29 +3201,32 @@
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
         <v>24500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>39700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3135,14 +3245,14 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
-        <v>1500</v>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>1500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
+      <c r="R49" s="3">
+        <v>1500</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
@@ -3159,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,14 +3420,14 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3318,8 +3437,8 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3354,8 +3473,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3541,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E54" s="3">
         <v>47500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>50700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>54700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1200</v>
       </c>
       <c r="J54" s="3">
         <v>1200</v>
       </c>
       <c r="K54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3100</v>
       </c>
       <c r="N54" s="3">
         <v>3100</v>
       </c>
       <c r="O54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3481,11 +3606,14 @@
       <c r="V54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,59 +3663,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3596,62 +3726,65 @@
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3661,61 +3794,64 @@
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10500</v>
+        <v>2400</v>
       </c>
       <c r="E59" s="3">
-        <v>3700</v>
+        <v>9500</v>
       </c>
       <c r="F59" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>8900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1200</v>
       </c>
       <c r="O59" s="3">
         <v>1200</v>
       </c>
       <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1400</v>
       </c>
       <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
+      <c r="S59" s="3">
+        <v>1400</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
@@ -3726,62 +3862,65 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2000</v>
       </c>
       <c r="P60" s="3">
         <v>2000</v>
       </c>
       <c r="Q60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3791,19 +3930,22 @@
       <c r="V60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3812,7 +3954,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3857,31 +3999,34 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
         <v>4900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21500</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
@@ -3909,8 +4054,8 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
@@ -3921,11 +4066,14 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,58 +4273,61 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E66" s="3">
         <v>24900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
+      <c r="S66" s="3">
+        <v>800</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>5</v>
@@ -4181,11 +4338,14 @@
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4360,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>3900</v>
@@ -4375,17 +4542,17 @@
         <v>3900</v>
       </c>
       <c r="N70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O70" s="3">
         <v>4400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3700</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,59 +4639,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-40000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-26500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4531,11 +4704,14 @@
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +4911,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>22600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4791,11 +4976,14 @@
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-700</v>
       </c>
       <c r="R81" s="3">
         <v>-700</v>
       </c>
       <c r="S81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,17 +5226,17 @@
         <v>1000</v>
       </c>
       <c r="E83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -5057,8 +5255,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
@@ -5075,8 +5273,8 @@
       <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5084,8 +5282,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,34 +5718,35 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="H91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5537,8 +5757,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
@@ -5555,8 +5775,8 @@
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +5784,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,29 +5920,32 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5733,13 +5962,13 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
@@ -5756,11 +5985,14 @@
       <c r="V94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,32 +6286,35 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6080,37 +6325,40 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>300</v>
       </c>
       <c r="S100" s="3">
         <v>300</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6422,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,60 +6434,63 @@
         <v>-1900</v>
       </c>
       <c r="E102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-900</v>
       </c>
       <c r="V102" s="3">
         <v>-900</v>
       </c>
       <c r="W102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICNB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>ICNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,154 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
       </c>
       <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
@@ -817,143 +821,149 @@
         <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
       </c>
       <c r="L9" s="3">
+        <v>400</v>
+      </c>
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>500</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1800</v>
       </c>
       <c r="G10" s="3">
         <v>1800</v>
       </c>
       <c r="H10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I10" s="3">
         <v>-900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>-100</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
@@ -961,11 +971,14 @@
       <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,20 +1143,23 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>22600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1155,8 +1175,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1167,11 +1187,11 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
@@ -1179,12 +1199,12 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>1300</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>29600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,29 +1480,30 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>7200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1480,11 +1514,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1501,64 +1535,67 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1583,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1600,17 +1640,17 @@
       <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1624,8 +1664,8 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1643,84 +1683,90 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1787,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-700</v>
       </c>
       <c r="S27" s="3">
         <v>-700</v>
       </c>
       <c r="T27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,40 +2117,43 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2100,12 +2161,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2124,11 +2185,14 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,29 +2330,32 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2296,11 +2366,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2317,90 +2387,96 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-700</v>
       </c>
       <c r="S33" s="3">
         <v>-700</v>
       </c>
       <c r="T33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-700</v>
       </c>
       <c r="S35" s="3">
         <v>-700</v>
       </c>
       <c r="T35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,62 +2746,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
       <c r="L41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
+        <v>500</v>
+      </c>
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2725,11 +2812,14 @@
       <c r="W41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,61 +2886,64 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
+      <c r="T43" s="3">
+        <v>100</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>5</v>
@@ -2864,61 +2957,64 @@
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>600</v>
       </c>
       <c r="K44" s="3">
         <v>600</v>
       </c>
       <c r="L44" s="3">
+        <v>600</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>700</v>
       </c>
       <c r="N44" s="3">
         <v>700</v>
       </c>
       <c r="O44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P44" s="3">
         <v>600</v>
       </c>
       <c r="Q44" s="3">
+        <v>600</v>
+      </c>
+      <c r="R44" s="3">
         <v>700</v>
-      </c>
-      <c r="R44" s="3">
-        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
+      <c r="T44" s="3">
+        <v>200</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>5</v>
@@ -2932,58 +3028,61 @@
       <c r="X44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
+      <c r="P45" s="3">
+        <v>100</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>5</v>
@@ -2997,65 +3096,68 @@
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>4300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1200</v>
       </c>
       <c r="K46" s="3">
         <v>1200</v>
       </c>
       <c r="L46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1900</v>
       </c>
       <c r="O46" s="3">
         <v>1900</v>
       </c>
       <c r="P46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>5</v>
       </c>
@@ -3065,11 +3167,14 @@
       <c r="W46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3104,16 +3209,16 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>1100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1000</v>
       </c>
       <c r="P47" s="3">
         <v>1000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
+      <c r="Q47" s="3">
+        <v>1000</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
@@ -3127,8 +3232,8 @@
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3136,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3145,28 +3253,28 @@
         <v>12500</v>
       </c>
       <c r="E48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F48" s="3">
         <v>12700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3178,10 +3286,10 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3189,8 +3297,8 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
+      <c r="T48" s="3">
+        <v>100</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
@@ -3204,32 +3312,35 @@
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>24500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3248,14 +3359,14 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>1500</v>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>1500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
+      <c r="S49" s="3">
+        <v>1500</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3423,14 +3543,14 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
+        <v>400</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3440,8 +3560,8 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,62 +3667,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E54" s="3">
         <v>18400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>54700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1200</v>
       </c>
       <c r="K54" s="3">
         <v>1200</v>
       </c>
       <c r="L54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>3100</v>
       </c>
       <c r="O54" s="3">
         <v>3100</v>
       </c>
       <c r="P54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3609,11 +3735,14 @@
       <c r="W54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,62 +3794,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3729,65 +3860,68 @@
       <c r="W57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3797,64 +3931,67 @@
       <c r="W58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1200</v>
       </c>
       <c r="P59" s="3">
         <v>1200</v>
       </c>
       <c r="Q59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R59" s="3">
         <v>1600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1400</v>
       </c>
       <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
+      <c r="T59" s="3">
+        <v>1400</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
@@ -3865,65 +4002,68 @@
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E60" s="3">
         <v>13000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2000</v>
       </c>
       <c r="Q60" s="3">
         <v>2000</v>
       </c>
       <c r="R60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3933,22 +4073,25 @@
       <c r="W60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -3957,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4002,34 +4145,37 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E62" s="3">
         <v>4800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21500</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -4057,8 +4203,8 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
@@ -4069,11 +4215,14 @@
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,61 +4431,64 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E66" s="3">
         <v>17200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
+      <c r="T66" s="3">
+        <v>800</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>5</v>
@@ -4341,11 +4499,14 @@
       <c r="W66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4530,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>3900</v>
@@ -4545,17 +4713,17 @@
         <v>3900</v>
       </c>
       <c r="O70" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P70" s="3">
         <v>4400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3700</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,62 +4813,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-71000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-49300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-20300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4707,11 +4881,14 @@
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,62 +5097,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4979,11 +5165,14 @@
       <c r="W76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>41364</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-700</v>
       </c>
       <c r="S81" s="3">
         <v>-700</v>
       </c>
       <c r="T81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,29 +5415,30 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
       </c>
       <c r="F83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5457,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
@@ -5276,8 +5475,8 @@
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5285,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,37 +5939,38 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5760,8 +5981,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
@@ -5778,8 +5999,8 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5787,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,32 +6150,35 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5965,13 +6195,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
@@ -5988,11 +6218,14 @@
       <c r="W94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,35 +6532,38 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6328,37 +6574,40 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
-      </c>
-      <c r="S100" s="3">
-        <v>300</v>
       </c>
       <c r="T100" s="3">
         <v>300</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1900</v>
+        <v>-700</v>
       </c>
       <c r="E102" s="3">
         <v>-1900</v>
       </c>
       <c r="F102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-900</v>
       </c>
       <c r="W102" s="3">
         <v>-900</v>
       </c>
       <c r="X102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
